--- a/Articles/197/ReadingExcelData/data/data1.xlsx
+++ b/Articles/197/ReadingExcelData/data/data1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D046FF1-D0A5-496A-9C4D-238D9CD8FE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4DE696-E799-4E62-92D1-5E6251DFCA0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,16 +381,16 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>123123123</v>
       </c>
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>456456456</v>
       </c>
@@ -450,7 +450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>789789789</v>
       </c>
